--- a/attendingList.xlsx
+++ b/attendingList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhan/Creative Cloud Files/Projects/Personal/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F40E312-BB82-A042-B5C7-D997EE0DC586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307CC572-C5DB-B74A-B150-5186D4A03BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0hgbm-l21ux" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="292">
   <si>
     <t>userPw</t>
   </si>
@@ -328,9 +328,6 @@
     <t>https://yeweon-junghoon.com/?id=4009&amp;pw=2123</t>
   </si>
   <si>
-    <t>https://yeweon-junghoon.com/?id=3038&amp;pw=9785</t>
-  </si>
-  <si>
     <t>https://yeweon-junghoon.com/?id=3021&amp;pw=3589</t>
   </si>
   <si>
@@ -791,9 +788,6 @@
   </si>
   <si>
     <t>박희근 &amp; 박명희</t>
-  </si>
-  <si>
-    <t>차민서 가족</t>
   </si>
   <si>
     <t>최은정 &amp; 내외분</t>
@@ -977,14 +971,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1303,8 +1296,8 @@
   <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1492,31 +1485,31 @@
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>7554</v>
+        <v>6240</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>15</v>
@@ -1525,36 +1518,36 @@
         <v>15</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>9721</v>
+        <v>4869</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>
@@ -1563,33 +1556,33 @@
         <v>15</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2003</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>79</v>
+        <v>2013</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>2388</v>
+        <v>5482</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -1601,36 +1594,36 @@
         <v>15</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>6546</v>
+        <v>3589</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>15</v>
@@ -1639,71 +1632,71 @@
         <v>15</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>4551</v>
+        <v>4195</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2006</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>167</v>
+        <v>2016</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>6182</v>
+        <v>7769</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -1715,33 +1708,33 @@
         <v>15</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>7226</v>
+        <v>5875</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -1753,33 +1746,33 @@
         <v>15</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2008</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>135</v>
+        <v>2020</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>7541</v>
+        <v>7450</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -1791,71 +1784,71 @@
         <v>15</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>2309</v>
+        <v>9914</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>3690</v>
+        <v>1912</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1867,24 +1860,24 @@
         <v>15</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2011</v>
+        <v>2023</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>6240</v>
+        <v>3499</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>15</v>
@@ -1893,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>15</v>
@@ -1910,19 +1903,19 @@
     </row>
     <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2012</v>
+        <v>2024</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>4869</v>
+        <v>1168</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>15</v>
@@ -1931,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>15</v>
@@ -1948,19 +1941,19 @@
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2013</v>
+        <v>2026</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>5482</v>
+        <v>2981</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
@@ -1969,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>15</v>
@@ -1984,21 +1977,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2014</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>187</v>
+        <v>2027</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>3589</v>
+        <v>5064</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>15</v>
@@ -2007,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -2024,19 +2017,19 @@
     </row>
     <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2015</v>
+        <v>2028</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>4195</v>
+        <v>6205</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
@@ -2045,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -2060,12 +2053,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2016</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>189</v>
+        <v>2031</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>15</v>
@@ -2074,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>7769</v>
+        <v>2258</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>15</v>
@@ -2083,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -2100,10 +2093,10 @@
     </row>
     <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2017</v>
+        <v>2032</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -2112,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>5875</v>
+        <v>4587</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>15</v>
@@ -2121,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -2138,10 +2131,10 @@
     </row>
     <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2018</v>
+        <v>2033</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -2150,16 +2143,16 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>9668</v>
+        <v>9621</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -2171,33 +2164,33 @@
         <v>15</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2019</v>
+        <v>2034</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>3480</v>
+        <v>6805</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -2209,24 +2202,24 @@
         <v>15</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2020</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>193</v>
+        <v>2035</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>7450</v>
+        <v>6916</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>15</v>
@@ -2235,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -2250,33 +2243,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2021</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>194</v>
+        <v>2036</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>9914</v>
+        <v>4987</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>15</v>
@@ -2290,19 +2283,19 @@
     </row>
     <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2022</v>
+        <v>2037</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1912</v>
+        <v>2174</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
@@ -2311,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -2328,10 +2321,10 @@
     </row>
     <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2023</v>
+        <v>2038</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>15</v>
@@ -2340,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>3499</v>
+        <v>5990</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
@@ -2349,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -2366,19 +2359,19 @@
     </row>
     <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2024</v>
+        <v>2039</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>1168</v>
+        <v>6040</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>15</v>
@@ -2387,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -2402,21 +2395,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2026</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>198</v>
+        <v>2040</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>2981</v>
+        <v>4250</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>15</v>
@@ -2425,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>15</v>
@@ -2440,21 +2433,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2027</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>199</v>
+        <v>2043</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>5064</v>
+        <v>2653</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>15</v>
@@ -2463,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2480,28 +2473,28 @@
     </row>
     <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2028</v>
+        <v>2044</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>6205</v>
+        <v>1786</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -2516,21 +2509,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>2031</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>201</v>
+        <v>2046</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>2258</v>
+        <v>1602</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>15</v>
@@ -2539,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -2556,19 +2549,19 @@
     </row>
     <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>2032</v>
+        <v>2048</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>4587</v>
+        <v>9424</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>15</v>
@@ -2577,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2594,19 +2587,19 @@
     </row>
     <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2033</v>
+        <v>2049</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>9621</v>
+        <v>7131</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>15</v>
@@ -2615,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -2632,10 +2625,10 @@
     </row>
     <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2034</v>
+        <v>2050</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>15</v>
@@ -2644,16 +2637,16 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>6805</v>
+        <v>2659</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -2670,10 +2663,10 @@
     </row>
     <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2035</v>
+        <v>2052</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
@@ -2682,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>6916</v>
+        <v>3869</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>15</v>
@@ -2691,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -2706,21 +2699,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2036</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>206</v>
+        <v>2053</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>4987</v>
+        <v>5767</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>15</v>
@@ -2729,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>15</v>
@@ -2746,19 +2739,19 @@
     </row>
     <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2037</v>
+        <v>2055</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>2174</v>
+        <v>1255</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>15</v>
@@ -2767,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -2784,19 +2777,19 @@
     </row>
     <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2038</v>
+        <v>2056</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>5990</v>
+        <v>2271</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
@@ -2805,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -2822,28 +2815,28 @@
     </row>
     <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2039</v>
+        <v>2058</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>6040</v>
+        <v>8119</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -2860,19 +2853,19 @@
     </row>
     <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2040</v>
+        <v>2060</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>4250</v>
+        <v>6481</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>15</v>
@@ -2881,13 +2874,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>15</v>
@@ -2898,28 +2891,28 @@
     </row>
     <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2043</v>
+        <v>2061</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>2653</v>
+        <v>6154</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -2936,28 +2929,28 @@
     </row>
     <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2044</v>
+        <v>2062</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>1786</v>
+        <v>6154</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -2972,12 +2965,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>2046</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>213</v>
+        <v>2063</v>
+      </c>
+      <c r="B45" t="s">
+        <v>129</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>15</v>
@@ -2986,16 +2979,16 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>1602</v>
+        <v>6154</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -3012,31 +3005,31 @@
     </row>
     <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2048</v>
+        <v>2064</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>9424</v>
+        <v>6154</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>15</v>
@@ -3048,21 +3041,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>2049</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>215</v>
+        <v>2901</v>
+      </c>
+      <c r="B47" t="s">
+        <v>223</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>7131</v>
+        <v>2901</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>15</v>
@@ -3071,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -3086,21 +3079,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>2050</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>216</v>
+        <v>3009</v>
+      </c>
+      <c r="B48" t="s">
+        <v>226</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>2659</v>
+        <v>6546</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>15</v>
@@ -3109,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -3124,12 +3117,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>2052</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>217</v>
+        <v>3010</v>
+      </c>
+      <c r="B49" t="s">
+        <v>227</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
@@ -3138,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>3869</v>
+        <v>9721</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>15</v>
@@ -3147,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="I49">
         <v>2</v>
@@ -3162,12 +3155,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>2053</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>218</v>
+        <v>3011</v>
+      </c>
+      <c r="B50" t="s">
+        <v>228</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -3176,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>5767</v>
+        <v>2388</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>15</v>
@@ -3185,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -3200,21 +3193,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>2055</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>219</v>
+        <v>3012</v>
+      </c>
+      <c r="B51" t="s">
+        <v>229</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>1255</v>
+        <v>7541</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>15</v>
@@ -3223,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -3238,21 +3231,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>2056</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>220</v>
+        <v>3013</v>
+      </c>
+      <c r="B52" t="s">
+        <v>230</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52">
-        <v>2271</v>
+        <v>7554</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>15</v>
@@ -3261,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -3276,12 +3269,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>2058</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>221</v>
+        <v>3014</v>
+      </c>
+      <c r="B53" t="s">
+        <v>231</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -3290,16 +3283,16 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>8119</v>
+        <v>2309</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="I53">
         <v>2</v>
@@ -3314,30 +3307,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>2059</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>222</v>
+        <v>3015</v>
+      </c>
+      <c r="B54" t="s">
+        <v>232</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>3233</v>
+        <v>3690</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -3349,24 +3342,24 @@
         <v>15</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>2060</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>223</v>
+        <v>3016</v>
+      </c>
+      <c r="B55" t="s">
+        <v>233</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>6481</v>
+        <v>4869</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>15</v>
@@ -3375,13 +3368,13 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>15</v>
@@ -3390,33 +3383,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>2061</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>17</v>
+        <v>3017</v>
+      </c>
+      <c r="B56" t="s">
+        <v>234</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>6154</v>
+        <v>5482</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>15</v>
@@ -3428,30 +3421,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>2062</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>155</v>
+        <v>3018</v>
+      </c>
+      <c r="B57" t="s">
+        <v>235</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>6154</v>
+        <v>6182</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="I57">
         <v>2</v>
@@ -3468,28 +3461,28 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>2063</v>
+        <v>3019</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>6154</v>
+        <v>4195</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="I58">
         <v>2</v>
@@ -3504,33 +3497,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>2064</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>115</v>
+        <v>3020</v>
+      </c>
+      <c r="B59" t="s">
+        <v>237</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>6154</v>
+        <v>6240</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>15</v>
@@ -3544,28 +3537,28 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>2065</v>
+        <v>3021</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>238</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>3231</v>
+        <v>3589</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="I60">
         <v>2</v>
@@ -3577,33 +3570,33 @@
         <v>15</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>2066</v>
+        <v>3022</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>3231</v>
+        <v>9668</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="I61">
         <v>2</v>
@@ -3615,24 +3608,24 @@
         <v>15</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>2901</v>
+        <v>3023</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>2901</v>
+        <v>7769</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>15</v>
@@ -3641,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -3658,28 +3651,28 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>3001</v>
+        <v>3024</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>1912</v>
+        <v>5875</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I63">
         <v>2</v>
@@ -3691,53 +3684,53 @@
         <v>15</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>3002</v>
+        <v>3025</v>
       </c>
       <c r="B64" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>3480</v>
+        <v>4551</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="I64">
         <v>2</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>3003</v>
+        <v>3026</v>
       </c>
       <c r="B65" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>15</v>
@@ -3746,16 +3739,16 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <v>5064</v>
+        <v>7226</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="I65">
         <v>2</v>
@@ -3767,33 +3760,33 @@
         <v>15</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>3004</v>
+        <v>3030</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>1168</v>
+        <v>4981</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -3805,36 +3798,36 @@
         <v>15</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>3005</v>
+        <v>3032</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>3499</v>
+        <v>4568</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>15</v>
@@ -3843,15 +3836,15 @@
         <v>15</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>3006</v>
+        <v>3033</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>15</v>
@@ -3860,19 +3853,19 @@
         <v>2</v>
       </c>
       <c r="E68">
-        <v>7450</v>
+        <v>6651</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>15</v>
@@ -3881,36 +3874,36 @@
         <v>15</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>3007</v>
+        <v>3034</v>
       </c>
       <c r="B69" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>2981</v>
+        <v>6651</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>15</v>
@@ -3919,36 +3912,36 @@
         <v>15</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>3008</v>
+        <v>3035</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>9914</v>
+        <v>6598</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>15</v>
@@ -3957,39 +3950,39 @@
         <v>15</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>3009</v>
+        <v>3036</v>
       </c>
       <c r="B71" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>6546</v>
+        <v>4585</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>15</v>
@@ -4000,19 +3993,19 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>3010</v>
+        <v>3037</v>
       </c>
       <c r="B72" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>9721</v>
+        <v>3154</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>15</v>
@@ -4021,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -4038,19 +4031,19 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>3011</v>
+        <v>3039</v>
       </c>
       <c r="B73" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>2388</v>
+        <v>1154</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>15</v>
@@ -4059,13 +4052,13 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>15</v>
@@ -4076,19 +4069,19 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>3012</v>
+        <v>3040</v>
       </c>
       <c r="B74" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>7541</v>
+        <v>4568</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>15</v>
@@ -4097,13 +4090,13 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>15</v>
@@ -4114,10 +4107,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>3013</v>
+        <v>4001</v>
       </c>
       <c r="B75" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>15</v>
@@ -4135,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="I75">
         <v>2</v>
@@ -4152,19 +4145,19 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>3014</v>
+        <v>4002</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>2309</v>
+        <v>2134</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>15</v>
@@ -4173,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>15</v>
@@ -4190,19 +4183,19 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>3015</v>
+        <v>4003</v>
       </c>
       <c r="B77" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>3690</v>
+        <v>5431</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>15</v>
@@ -4211,10 +4204,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>15</v>
@@ -4228,19 +4221,19 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>3016</v>
+        <v>4004</v>
       </c>
       <c r="B78" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>4869</v>
+        <v>2138</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>15</v>
@@ -4249,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="I78">
         <v>2</v>
@@ -4266,19 +4259,19 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>3017</v>
+        <v>4005</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>5482</v>
+        <v>2348</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>15</v>
@@ -4287,10 +4280,10 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>15</v>
@@ -4304,19 +4297,19 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>3018</v>
+        <v>4006</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E80">
-        <v>6182</v>
+        <v>3548</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>15</v>
@@ -4325,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>15</v>
@@ -4342,19 +4335,19 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>3019</v>
+        <v>4007</v>
       </c>
       <c r="B81" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81">
-        <v>4195</v>
+        <v>2157</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>15</v>
@@ -4363,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I81">
         <v>2</v>
@@ -4380,19 +4373,19 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>3020</v>
+        <v>4008</v>
       </c>
       <c r="B82" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>6240</v>
+        <v>3577</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>15</v>
@@ -4401,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="I82">
         <v>2</v>
@@ -4418,19 +4411,19 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>3021</v>
+        <v>4009</v>
       </c>
       <c r="B83" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>3589</v>
+        <v>2123</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>15</v>
@@ -4439,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I83">
         <v>2</v>
@@ -4456,19 +4449,19 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>3022</v>
+        <v>4010</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>9668</v>
+        <v>2188</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>15</v>
@@ -4477,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="I84">
         <v>2</v>
@@ -4494,19 +4487,19 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>3023</v>
+        <v>4011</v>
       </c>
       <c r="B85" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>7769</v>
+        <v>3892</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>15</v>
@@ -4515,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="I85">
         <v>2</v>
@@ -4532,19 +4525,19 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>3024</v>
+        <v>4012</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>5875</v>
+        <v>8789</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>15</v>
@@ -4553,10 +4546,10 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>15</v>
@@ -4570,19 +4563,19 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>3025</v>
+        <v>4014</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>4551</v>
+        <v>9978</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>15</v>
@@ -4591,13 +4584,13 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>15</v>
@@ -4608,19 +4601,19 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>3026</v>
+        <v>4015</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>7226</v>
+        <v>8123</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>15</v>
@@ -4629,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="I88">
         <v>2</v>
@@ -4646,28 +4639,28 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>3027</v>
+        <v>4016</v>
       </c>
       <c r="B89" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>3213</v>
+        <v>3248</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="I89">
         <v>2</v>
@@ -4679,36 +4672,36 @@
         <v>15</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>3028</v>
+        <v>4017</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90">
-        <v>5652</v>
+        <v>4585</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>15</v>
@@ -4717,33 +4710,33 @@
         <v>15</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>3029</v>
+        <v>4020</v>
       </c>
       <c r="B91" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>3573</v>
+        <v>3152</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="I91">
         <v>2</v>
@@ -4755,24 +4748,24 @@
         <v>15</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>3030</v>
+        <v>5001</v>
       </c>
       <c r="B92" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92">
-        <v>4981</v>
+        <v>7013</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>15</v>
@@ -4781,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I92">
         <v>2</v>
@@ -4798,28 +4791,28 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>3031</v>
+        <v>5002</v>
       </c>
       <c r="B93" t="s">
-        <v>173</v>
+        <v>270</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>4561</v>
+        <v>2586</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -4831,24 +4824,24 @@
         <v>15</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>3032</v>
+        <v>5003</v>
       </c>
       <c r="B94" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>4568</v>
+        <v>5135</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>15</v>
@@ -4857,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="I94">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>15</v>
@@ -4874,19 +4867,19 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>3033</v>
+        <v>5004</v>
       </c>
       <c r="B95" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D95">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>6651</v>
+        <v>1120</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>15</v>
@@ -4895,10 +4888,10 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>15</v>
@@ -4912,19 +4905,19 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>3034</v>
+        <v>5005</v>
       </c>
       <c r="B96" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>6651</v>
+        <v>2714</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>15</v>
@@ -4933,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="I96">
         <v>2</v>
@@ -4950,19 +4943,19 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>3035</v>
+        <v>5006</v>
       </c>
       <c r="B97" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>6598</v>
+        <v>8260</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>15</v>
@@ -4971,10 +4964,10 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>15</v>
@@ -4988,34 +4981,34 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>3036</v>
+        <v>5007</v>
       </c>
       <c r="B98" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>4585</v>
+        <v>1941</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="I98">
         <v>2</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>15</v>
@@ -5026,19 +5019,19 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>3037</v>
+        <v>5008</v>
       </c>
       <c r="B99" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>3154</v>
+        <v>9967</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>15</v>
@@ -5047,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -5064,19 +5057,19 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>3038</v>
+        <v>5009</v>
       </c>
       <c r="B100" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>9785</v>
+        <v>4485</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>15</v>
@@ -5085,13 +5078,13 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>15</v>
@@ -5102,19 +5095,19 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>3039</v>
+        <v>5010</v>
       </c>
       <c r="B101" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>1154</v>
+        <v>4158</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>15</v>
@@ -5123,13 +5116,13 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>15</v>
@@ -5140,10 +5133,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>3040</v>
+        <v>5011</v>
       </c>
       <c r="B102" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>15</v>
@@ -5152,7 +5145,7 @@
         <v>2</v>
       </c>
       <c r="E102">
-        <v>4568</v>
+        <v>9891</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>15</v>
@@ -5161,13 +5154,13 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>15</v>
@@ -5178,28 +5171,28 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>3041</v>
+        <v>5012</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>280</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>4268</v>
+        <v>7436</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="I103">
         <v>2</v>
@@ -5211,33 +5204,33 @@
         <v>15</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>3042</v>
+        <v>5013</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>281</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>3123</v>
+        <v>1299</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>104</v>
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>156</v>
       </c>
       <c r="I104">
         <v>2</v>
@@ -5249,15 +5242,15 @@
         <v>15</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>4001</v>
+        <v>5014</v>
       </c>
       <c r="B105" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>15</v>
@@ -5266,7 +5259,7 @@
         <v>2</v>
       </c>
       <c r="E105">
-        <v>7554</v>
+        <v>6902</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>15</v>
@@ -5275,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="I105">
         <v>2</v>
@@ -5292,19 +5285,19 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>4002</v>
+        <v>5015</v>
       </c>
       <c r="B106" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>2134</v>
+        <v>5773</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>15</v>
@@ -5313,10 +5306,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>15</v>
@@ -5330,19 +5323,19 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>4003</v>
+        <v>5016</v>
       </c>
       <c r="B107" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>5431</v>
+        <v>2925</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>15</v>
@@ -5351,10 +5344,10 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="I107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>15</v>
@@ -5368,19 +5361,19 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>4004</v>
+        <v>5017</v>
       </c>
       <c r="B108" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D108">
         <v>2</v>
       </c>
       <c r="E108">
-        <v>2138</v>
+        <v>1395</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>15</v>
@@ -5389,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I108">
         <v>2</v>
@@ -5406,19 +5399,19 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>4005</v>
+        <v>5018</v>
       </c>
       <c r="B109" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D109">
         <v>2</v>
       </c>
       <c r="E109">
-        <v>2348</v>
+        <v>4408</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>15</v>
@@ -5427,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="I109">
         <v>2</v>
@@ -5444,19 +5437,19 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>4006</v>
+        <v>5019</v>
       </c>
       <c r="B110" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>3548</v>
+        <v>8758</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>15</v>
@@ -5465,10 +5458,10 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="I110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>15</v>
@@ -5482,19 +5475,19 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>4007</v>
+        <v>5020</v>
       </c>
       <c r="B111" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D111">
         <v>2</v>
       </c>
       <c r="E111">
-        <v>2157</v>
+        <v>7042</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>15</v>
@@ -5503,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="I111">
         <v>2</v>
@@ -5520,19 +5513,19 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>4008</v>
+        <v>5021</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>3577</v>
+        <v>2476</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>15</v>
@@ -5541,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I112">
         <v>2</v>
@@ -5558,10 +5551,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>4009</v>
+        <v>5022</v>
       </c>
       <c r="B113" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>15</v>
@@ -5570,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="E113">
-        <v>2123</v>
+        <v>2323</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>15</v>
@@ -5579,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>96</v>
+        <v>291</v>
       </c>
       <c r="I113">
         <v>2</v>
@@ -5594,30 +5587,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>4010</v>
-      </c>
-      <c r="B114" t="s">
-        <v>264</v>
+        <v>2001</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>2188</v>
+        <v>7554</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="I114">
         <v>2</v>
@@ -5629,15 +5622,15 @@
         <v>15</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>4011</v>
-      </c>
-      <c r="B115" t="s">
-        <v>265</v>
+        <v>2002</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>15</v>
@@ -5646,16 +5639,16 @@
         <v>2</v>
       </c>
       <c r="E115">
-        <v>3892</v>
+        <v>9721</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="I115">
         <v>2</v>
@@ -5667,75 +5660,75 @@
         <v>15</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>4012</v>
-      </c>
-      <c r="B116" t="s">
-        <v>266</v>
+        <v>2003</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>2388</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>78</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>2004</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117">
         <v>3</v>
       </c>
-      <c r="E116">
-        <v>8789</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116" t="s">
-        <v>72</v>
-      </c>
-      <c r="I116">
+      <c r="E117">
+        <v>6546</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>177</v>
+      </c>
+      <c r="I117">
         <v>3</v>
       </c>
-      <c r="J116" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A117">
-        <v>4014</v>
-      </c>
-      <c r="B117" t="s">
-        <v>267</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117">
-        <v>2</v>
-      </c>
-      <c r="E117">
-        <v>9978</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117" t="s">
-        <v>102</v>
-      </c>
-      <c r="I117">
-        <v>2</v>
-      </c>
       <c r="J117" s="1" t="s">
         <v>15</v>
       </c>
@@ -5743,71 +5736,71 @@
         <v>15</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>4015</v>
-      </c>
-      <c r="B118" t="s">
-        <v>268</v>
+        <v>2005</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>8123</v>
+        <v>4551</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K118" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>4016</v>
-      </c>
-      <c r="B119" t="s">
-        <v>269</v>
+        <v>2006</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>3248</v>
+        <v>6182</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="I119">
         <v>2</v>
@@ -5819,15 +5812,15 @@
         <v>15</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>4017</v>
-      </c>
-      <c r="B120" t="s">
-        <v>270</v>
+        <v>2007</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>15</v>
@@ -5836,19 +5829,19 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>4585</v>
+        <v>7226</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>15</v>
@@ -5857,33 +5850,33 @@
         <v>15</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>4018</v>
-      </c>
-      <c r="B121" t="s">
-        <v>49</v>
+        <v>2008</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>4684</v>
+        <v>7541</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G121">
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="I121">
         <v>2</v>
@@ -5898,21 +5891,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>4019</v>
-      </c>
-      <c r="B122" t="s">
-        <v>120</v>
+        <v>2009</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>4681</v>
+        <v>2309</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>12</v>
@@ -5921,13 +5914,13 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K122" s="1" t="s">
         <v>15</v>
@@ -5936,12 +5929,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>4020</v>
-      </c>
-      <c r="B123" t="s">
-        <v>66</v>
+        <v>2010</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>15</v>
@@ -5950,16 +5943,16 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>3152</v>
+        <v>3690</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I123">
         <v>2</v>
@@ -5971,33 +5964,33 @@
         <v>15</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>5001</v>
-      </c>
-      <c r="B124" t="s">
-        <v>271</v>
+        <v>2018</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>7013</v>
+        <v>9668</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I124">
         <v>2</v>
@@ -6009,33 +6002,33 @@
         <v>15</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>5002</v>
-      </c>
-      <c r="B125" t="s">
-        <v>272</v>
+        <v>2019</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125">
-        <v>2586</v>
+        <v>3480</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="I125">
         <v>2</v>
@@ -6047,33 +6040,33 @@
         <v>15</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>5003</v>
-      </c>
-      <c r="B126" t="s">
-        <v>273</v>
+        <v>2059</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>5135</v>
+        <v>3233</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="I126">
         <v>2</v>
@@ -6085,15 +6078,15 @@
         <v>15</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A127">
-        <v>5004</v>
+        <v>2065</v>
       </c>
       <c r="B127" t="s">
-        <v>274</v>
+        <v>24</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>15</v>
@@ -6102,16 +6095,16 @@
         <v>2</v>
       </c>
       <c r="E127">
-        <v>1120</v>
+        <v>3231</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -6123,33 +6116,33 @@
         <v>15</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A128">
-        <v>5005</v>
+        <v>2066</v>
       </c>
       <c r="B128" t="s">
-        <v>275</v>
+        <v>106</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>2714</v>
+        <v>3231</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="I128">
         <v>2</v>
@@ -6161,33 +6154,33 @@
         <v>15</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A129">
-        <v>5006</v>
+        <v>3001</v>
       </c>
       <c r="B129" t="s">
-        <v>276</v>
+        <v>35</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>8260</v>
+        <v>1912</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I129">
         <v>2</v>
@@ -6199,15 +6192,15 @@
         <v>15</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130">
-        <v>5007</v>
+        <v>3002</v>
       </c>
       <c r="B130" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>12</v>
@@ -6216,16 +6209,16 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1941</v>
+        <v>3480</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="I130">
         <v>2</v>
@@ -6237,33 +6230,33 @@
         <v>15</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131">
-        <v>5008</v>
+        <v>3003</v>
       </c>
       <c r="B131" t="s">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>9967</v>
+        <v>5064</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="I131">
         <v>2</v>
@@ -6275,15 +6268,15 @@
         <v>15</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132">
-        <v>5009</v>
+        <v>3004</v>
       </c>
       <c r="B132" t="s">
-        <v>279</v>
+        <v>141</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>15</v>
@@ -6292,16 +6285,16 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>4485</v>
+        <v>1168</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="I132">
         <v>2</v>
@@ -6313,15 +6306,15 @@
         <v>15</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133">
-        <v>5010</v>
+        <v>3005</v>
       </c>
       <c r="B133" t="s">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>15</v>
@@ -6330,19 +6323,19 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>4158</v>
+        <v>3499</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>15</v>
@@ -6351,33 +6344,33 @@
         <v>15</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134">
-        <v>5011</v>
+        <v>3006</v>
       </c>
       <c r="B134" t="s">
-        <v>281</v>
+        <v>99</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>9891</v>
+        <v>7450</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="I134">
         <v>2</v>
@@ -6389,15 +6382,15 @@
         <v>15</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135">
-        <v>5012</v>
+        <v>3007</v>
       </c>
       <c r="B135" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>15</v>
@@ -6406,19 +6399,19 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>7436</v>
+        <v>2981</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>15</v>
@@ -6427,33 +6420,33 @@
         <v>15</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A136">
-        <v>5013</v>
+        <v>3008</v>
       </c>
       <c r="B136" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>1299</v>
+        <v>9914</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="I136">
         <v>2</v>
@@ -6465,33 +6458,33 @@
         <v>15</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A137">
-        <v>5014</v>
+        <v>3027</v>
       </c>
       <c r="B137" t="s">
-        <v>284</v>
+        <v>125</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>6902</v>
+        <v>3213</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="I137">
         <v>2</v>
@@ -6503,33 +6496,33 @@
         <v>15</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A138">
-        <v>5015</v>
+        <v>3028</v>
       </c>
       <c r="B138" t="s">
-        <v>285</v>
+        <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D138">
         <v>2</v>
       </c>
       <c r="E138">
-        <v>5773</v>
+        <v>5652</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="I138">
         <v>2</v>
@@ -6541,33 +6534,33 @@
         <v>15</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A139">
-        <v>5016</v>
+        <v>3029</v>
       </c>
       <c r="B139" t="s">
-        <v>286</v>
+        <v>170</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D139">
         <v>2</v>
       </c>
       <c r="E139">
-        <v>2925</v>
+        <v>3573</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="I139">
         <v>2</v>
@@ -6579,33 +6572,33 @@
         <v>15</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A140">
-        <v>5017</v>
+        <v>3031</v>
       </c>
       <c r="B140" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>1395</v>
+        <v>4561</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="I140">
         <v>2</v>
@@ -6617,33 +6610,33 @@
         <v>15</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141">
-        <v>5018</v>
+        <v>3041</v>
       </c>
       <c r="B141" t="s">
-        <v>288</v>
+        <v>110</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>4408</v>
+        <v>4268</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I141">
         <v>2</v>
@@ -6655,15 +6648,15 @@
         <v>15</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A142">
-        <v>5019</v>
+        <v>3042</v>
       </c>
       <c r="B142" t="s">
-        <v>289</v>
+        <v>104</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>15</v>
@@ -6672,19 +6665,19 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>8758</v>
+        <v>3123</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="I142">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>15</v>
@@ -6693,15 +6686,15 @@
         <v>15</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A143">
-        <v>5020</v>
+        <v>4018</v>
       </c>
       <c r="B143" t="s">
-        <v>290</v>
+        <v>49</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>15</v>
@@ -6710,16 +6703,16 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>7042</v>
+        <v>4684</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="I143">
         <v>2</v>
@@ -6731,15 +6724,15 @@
         <v>15</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A144">
-        <v>5021</v>
+        <v>4019</v>
       </c>
       <c r="B144" t="s">
-        <v>291</v>
+        <v>119</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>15</v>
@@ -6748,16 +6741,16 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>2476</v>
+        <v>4681</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="I144">
         <v>2</v>
@@ -6769,53 +6762,21 @@
         <v>15</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A145">
-        <v>5022</v>
-      </c>
-      <c r="B145" t="s">
-        <v>292</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D145">
-        <v>2</v>
-      </c>
-      <c r="E145">
-        <v>2323</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="I145">
-        <v>2</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K145" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L145" s="1" t="s">
-        <v>15</v>
+        <f>SUM(D2:D144)</f>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L145">
-    <sortCondition ref="A1:A145"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L144">
+    <sortCondition ref="L1:L144"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H104" r:id="rId1" xr:uid="{675D6377-556B-7644-A28F-A1362F8109BF}"/>
+    <hyperlink ref="H142" r:id="rId1" xr:uid="{675D6377-556B-7644-A28F-A1362F8109BF}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
